--- a/data/trans_orig/Q4503_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4503_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>311518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>282473</v>
+        <v>282613</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>338332</v>
+        <v>341867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3022021636550102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2740259234558493</v>
+        <v>0.2741610519116367</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3282137006178271</v>
+        <v>0.3316432873351843</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>178</v>
@@ -764,19 +764,19 @@
         <v>180828</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158297</v>
+        <v>156152</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>206267</v>
+        <v>206985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1375980778366153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.120453907082313</v>
+        <v>0.1188217856628509</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.156955622588584</v>
+        <v>0.1575022333713493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>492</v>
@@ -785,19 +785,19 @@
         <v>492346</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>452841</v>
+        <v>453203</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>533427</v>
+        <v>532487</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2099555787135119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1931089899355649</v>
+        <v>0.1932636787358148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2274742341284915</v>
+        <v>0.2270733891737942</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>202520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>178081</v>
+        <v>179240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>228937</v>
+        <v>231508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1964636726796983</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1727550697809623</v>
+        <v>0.1738797074808601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2220903982317975</v>
+        <v>0.2245845361460294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -835,19 +835,19 @@
         <v>130753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110807</v>
+        <v>109910</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>153940</v>
+        <v>152906</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09949467785204734</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0843169150697041</v>
+        <v>0.08363416535098372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1171384706454049</v>
+        <v>0.1163516398233002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>330</v>
@@ -856,19 +856,19 @@
         <v>333273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>300127</v>
+        <v>299633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>367052</v>
+        <v>366375</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1421208015803166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1279858703603958</v>
+        <v>0.127775095368212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1565254710249091</v>
+        <v>0.1562368398550395</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>229559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>202128</v>
+        <v>203732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>256347</v>
+        <v>255922</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2226938990447956</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.196083315556963</v>
+        <v>0.197638936181107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2486809228361368</v>
+        <v>0.2482688083223121</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>206</v>
@@ -906,19 +906,19 @@
         <v>208938</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>185253</v>
+        <v>182378</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>235984</v>
+        <v>237187</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1589880324891281</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1409654581737698</v>
+        <v>0.138777981436287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1795686626910981</v>
+        <v>0.1804841319519652</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>434</v>
@@ -927,19 +927,19 @@
         <v>438497</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>402588</v>
+        <v>402945</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>478461</v>
+        <v>479618</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1869921811847496</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1716791278697562</v>
+        <v>0.1718314907258023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2040347132983439</v>
+        <v>0.2045280966993598</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>53580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40492</v>
+        <v>40467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67780</v>
+        <v>68410</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05197785826874918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03928144490015927</v>
+        <v>0.03925723854938999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06575275531154241</v>
+        <v>0.06636401429550232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -977,19 +977,19 @@
         <v>145362</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125698</v>
+        <v>123543</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168737</v>
+        <v>169542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1106113814168261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09564783717468378</v>
+        <v>0.09400830991041961</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1283979272440606</v>
+        <v>0.1290102691935465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -998,19 +998,19 @@
         <v>198943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>174933</v>
+        <v>174617</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226273</v>
+        <v>227483</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0848369592236657</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07459837576004229</v>
+        <v>0.07446337781132308</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0964914951542054</v>
+        <v>0.09700766443183624</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>233650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>206646</v>
+        <v>208104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>259474</v>
+        <v>263625</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2266624063517466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2004663589329628</v>
+        <v>0.2018810808549734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.25171394067097</v>
+        <v>0.2557416221886579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>633</v>
@@ -1048,19 +1048,19 @@
         <v>648292</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>612102</v>
+        <v>612856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>682892</v>
+        <v>686529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4933078304053832</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.465769816720418</v>
+        <v>0.4663432466093515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.519635982869365</v>
+        <v>0.5224041584566936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>871</v>
@@ -1069,19 +1069,19 @@
         <v>881942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>833854</v>
+        <v>834738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>928346</v>
+        <v>928503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3760944792977562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3555881135970836</v>
+        <v>0.3559651096443299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3958831354528152</v>
+        <v>0.3959499483352871</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>241167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211738</v>
+        <v>215704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270054</v>
+        <v>271171</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1425007175710458</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1251114200650884</v>
+        <v>0.1274548278761669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1595691164761411</v>
+        <v>0.1602294730393229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -1194,19 +1194,19 @@
         <v>140938</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120411</v>
+        <v>119155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>163262</v>
+        <v>165131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08901458558470132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07604967495339059</v>
+        <v>0.07525640399892809</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1031140243945874</v>
+        <v>0.1042941188231776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>366</v>
@@ -1215,19 +1215,19 @@
         <v>382106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>343828</v>
+        <v>346043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419643</v>
+        <v>421311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1166481684562516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1049628637443095</v>
+        <v>0.1056391847523019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1281076016992919</v>
+        <v>0.1286166600234076</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>318936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>285778</v>
+        <v>286484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>349549</v>
+        <v>351410</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1884527325588488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1688602806092488</v>
+        <v>0.1692774233978201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2065413224828518</v>
+        <v>0.2076410339069958</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -1265,19 +1265,19 @@
         <v>166796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142789</v>
+        <v>144822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>191676</v>
+        <v>193956</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1053460575062406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09018335964221853</v>
+        <v>0.09146717114264377</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.121059525750231</v>
+        <v>0.1224996565613463</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>475</v>
@@ -1286,19 +1286,19 @@
         <v>485733</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>448585</v>
+        <v>447746</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>530409</v>
+        <v>524540</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1482830788790252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1369429225584583</v>
+        <v>0.1366866696878156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1619217722718555</v>
+        <v>0.160130134421705</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>564842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>528021</v>
+        <v>528239</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>607742</v>
+        <v>607377</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3337533130251272</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3119965372518479</v>
+        <v>0.312125335395854</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.359101801751625</v>
+        <v>0.3588861432299303</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>482</v>
@@ -1336,19 +1336,19 @@
         <v>494581</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>458120</v>
+        <v>461820</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>531489</v>
+        <v>529822</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3123698792765442</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2893419303496232</v>
+        <v>0.2916790173045529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.33568056157828</v>
+        <v>0.3346281818553347</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1036</v>
@@ -1357,19 +1357,19 @@
         <v>1059423</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1007364</v>
+        <v>1008311</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1108750</v>
+        <v>1114011</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3234176194406794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3075254182753782</v>
+        <v>0.3078145202914836</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3384762085521419</v>
+        <v>0.3400821546580594</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>182728</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158352</v>
+        <v>156532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211247</v>
+        <v>206731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1079700449556888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09356657660843047</v>
+        <v>0.09249163448678785</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1248216306118114</v>
+        <v>0.1221532750039259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>214</v>
@@ -1407,19 +1407,19 @@
         <v>220701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>195398</v>
+        <v>195217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>250875</v>
+        <v>251736</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1393912989445505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1234107489569013</v>
+        <v>0.1232965092695067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1584487180299446</v>
+        <v>0.1589929132932983</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>394</v>
@@ -1428,19 +1428,19 @@
         <v>403428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>365219</v>
+        <v>368103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>438862</v>
+        <v>442235</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1231575240615412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1114929112010982</v>
+        <v>0.1123735965221023</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1339747253263474</v>
+        <v>0.1350042116355967</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>384720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352950</v>
+        <v>351038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>420302</v>
+        <v>421233</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2273231918892893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2085504498291883</v>
+        <v>0.2074210110200093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2483474661417688</v>
+        <v>0.2488978357160034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>557</v>
@@ -1478,19 +1478,19 @@
         <v>560301</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>522557</v>
+        <v>524949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>596541</v>
+        <v>601945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3538781786879633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3300394089492217</v>
+        <v>0.3315498672796609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.376766879807876</v>
+        <v>0.3801794274111188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>927</v>
@@ -1499,19 +1499,19 @@
         <v>945022</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>896045</v>
+        <v>893531</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1000019</v>
+        <v>993650</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2884936091625026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2735421668623463</v>
+        <v>0.2727746182611702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3052830821606873</v>
+        <v>0.3033388595363342</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>81182</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64526</v>
+        <v>64601</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98956</v>
+        <v>98813</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1472276215462286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.117020840437647</v>
+        <v>0.117157228199102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1794614393137641</v>
+        <v>0.1792009534108421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1624,19 +1624,19 @@
         <v>59225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45076</v>
+        <v>46478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76654</v>
+        <v>76717</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1243156756936898</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09461503132754491</v>
+        <v>0.09755863814165057</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1608977249682427</v>
+        <v>0.161031184496612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>127</v>
@@ -1645,19 +1645,19 @@
         <v>140408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119061</v>
+        <v>119071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163661</v>
+        <v>166955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1366075497781809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1158387424401439</v>
+        <v>0.1158481422136398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1592312790722733</v>
+        <v>0.1624363731364409</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>97701</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80446</v>
+        <v>80723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116968</v>
+        <v>118863</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1771851249851551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1458924604893549</v>
+        <v>0.1463934922642947</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2121263680371997</v>
+        <v>0.215561823423932</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -1695,19 +1695,19 @@
         <v>72741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57870</v>
+        <v>57489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89836</v>
+        <v>91142</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1526847460790518</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1214715364634384</v>
+        <v>0.1206701894804686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1885669338567041</v>
+        <v>0.1913092048350319</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -1716,19 +1716,19 @@
         <v>170442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146956</v>
+        <v>147761</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>195459</v>
+        <v>196230</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1658287878149384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.142978100139581</v>
+        <v>0.1437617792781611</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1901680413293457</v>
+        <v>0.1909184406206322</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>171007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>150925</v>
+        <v>151072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>195340</v>
+        <v>194574</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3101286416680401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2737090941659082</v>
+        <v>0.2739748069526409</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3542563058346052</v>
+        <v>0.3528683769520707</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>130</v>
@@ -1766,19 +1766,19 @@
         <v>136356</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116972</v>
+        <v>116271</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>158629</v>
+        <v>156534</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2862140579001869</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2455272448798466</v>
+        <v>0.2440565494601694</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3329657559012502</v>
+        <v>0.3285690700206411</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>294</v>
@@ -1787,19 +1787,19 @@
         <v>307363</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>278124</v>
+        <v>279483</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>338205</v>
+        <v>338469</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2990438303843469</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2705959494005132</v>
+        <v>0.2719182498112929</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3290510941757376</v>
+        <v>0.3293081097044802</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>73548</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58289</v>
+        <v>57782</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91791</v>
+        <v>92156</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1333830243573231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1057088693635337</v>
+        <v>0.1047895675782007</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.166467192299389</v>
+        <v>0.1671281664990176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1837,19 +1837,19 @@
         <v>63395</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49324</v>
+        <v>49784</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79801</v>
+        <v>78061</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1330681051047337</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1035329974767995</v>
+        <v>0.1044970357193671</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1675042498977438</v>
+        <v>0.1638525839680309</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -1858,19 +1858,19 @@
         <v>136944</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115332</v>
+        <v>115298</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>160452</v>
+        <v>162474</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1332370539938645</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.112210261405694</v>
+        <v>0.1121767526274276</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.156108799795273</v>
+        <v>0.1580765446227011</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>127968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109353</v>
+        <v>107663</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150923</v>
+        <v>149778</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2320755874432531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1983167002918377</v>
+        <v>0.1952508521517841</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2737053941329955</v>
+        <v>0.2716282076733649</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1908,19 +1908,19 @@
         <v>144695</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123843</v>
+        <v>122978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>166070</v>
+        <v>163770</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3037174152223378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2599487267428762</v>
+        <v>0.2581326927881237</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3485855053329698</v>
+        <v>0.3437581310271616</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>265</v>
@@ -1929,19 +1929,19 @@
         <v>272663</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>243111</v>
+        <v>244826</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>302671</v>
+        <v>302891</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2652827780286693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2365306567315207</v>
+        <v>0.2381994522000434</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2944784114041534</v>
+        <v>0.2946927721469383</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>633868</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>590453</v>
+        <v>589200</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>677606</v>
+        <v>681030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1935694033520363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1803112922043864</v>
+        <v>0.1799288114494503</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2069261631916076</v>
+        <v>0.2079715936705604</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>367</v>
@@ -2054,19 +2054,19 @@
         <v>380991</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>344431</v>
+        <v>347665</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>420280</v>
+        <v>416636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1129230992734299</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1020869407964205</v>
+        <v>0.1030452886736398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1245679649896695</v>
+        <v>0.1234880437743741</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>985</v>
@@ -2075,19 +2075,19 @@
         <v>1014859</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>952283</v>
+        <v>959306</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1078038</v>
+        <v>1071588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1526441705231706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1432320704323415</v>
+        <v>0.1442884383901005</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1621468806622661</v>
+        <v>0.1611767200100978</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>619158</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>573161</v>
+        <v>572662</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>663879</v>
+        <v>664419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1890771834888444</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1750308329565853</v>
+        <v>0.1748785370713576</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2027342058401747</v>
+        <v>0.2028989503509739</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>356</v>
@@ -2125,19 +2125,19 @@
         <v>370290</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>337516</v>
+        <v>335739</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>407288</v>
+        <v>408607</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1097513367659772</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1000372100669478</v>
+        <v>0.09951054848024379</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1207173062064855</v>
+        <v>0.1211083147584401</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>966</v>
@@ -2146,19 +2146,19 @@
         <v>989448</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>935067</v>
+        <v>932159</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1053235</v>
+        <v>1047173</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1488220374710437</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1406427194970815</v>
+        <v>0.1402052874009591</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1584162468330269</v>
+        <v>0.1575043801597314</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>965408</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>915845</v>
+        <v>912722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1021293</v>
+        <v>1022707</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2948145930381582</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2796790895839561</v>
+        <v>0.2787253096786352</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3118805371687904</v>
+        <v>0.3123122273535685</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>818</v>
@@ -2196,19 +2196,19 @@
         <v>839874</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>789348</v>
+        <v>790211</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>894559</v>
+        <v>892273</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2489325691303821</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2339571553449453</v>
+        <v>0.2342127625305676</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2651408374964708</v>
+        <v>0.2644632750611108</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1764</v>
@@ -2217,19 +2217,19 @@
         <v>1805282</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1729083</v>
+        <v>1727047</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1879887</v>
+        <v>1881630</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2715310398420305</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2600700076595179</v>
+        <v>0.2597636863663494</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2827523382957835</v>
+        <v>0.2830144604752385</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>309857</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>280075</v>
+        <v>277615</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>348124</v>
+        <v>345105</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09462339234876335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08552880801307182</v>
+        <v>0.08477745603294137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1063095838508</v>
+        <v>0.105387467487216</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>420</v>
@@ -2267,19 +2267,19 @@
         <v>429458</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>394129</v>
+        <v>393725</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>472091</v>
+        <v>466916</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1272883265169381</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1168170060318462</v>
+        <v>0.1166972104668254</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1399244216867164</v>
+        <v>0.1383904413581692</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>725</v>
@@ -2288,19 +2288,19 @@
         <v>739315</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>689605</v>
+        <v>693283</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>790970</v>
+        <v>788893</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1111997259011245</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1037229849243006</v>
+        <v>0.104276117173302</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1189692150496414</v>
+        <v>0.1186568166145056</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>746338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>699602</v>
+        <v>700192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>796674</v>
+        <v>794939</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2279154277721978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2136431275551177</v>
+        <v>0.2138232456554198</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2432869170459557</v>
+        <v>0.242756818288827</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1330</v>
@@ -2338,19 +2338,19 @@
         <v>1353287</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1291971</v>
+        <v>1296838</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1408289</v>
+        <v>1410768</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4011046683132727</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3829310161383119</v>
+        <v>0.3843733696523309</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4174066591574074</v>
+        <v>0.4181414447847883</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2063</v>
@@ -2359,19 +2359,19 @@
         <v>2099626</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2014459</v>
+        <v>2023267</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2174579</v>
+        <v>2181633</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3158030262626307</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3029931091968517</v>
+        <v>0.30431794811209</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3270767078079603</v>
+        <v>0.3281376392417455</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>351492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>320369</v>
+        <v>322149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>383349</v>
+        <v>383031</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3609940803487524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3290293624197745</v>
+        <v>0.3308580223778177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3937124700850358</v>
+        <v>0.3933860659046248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>222</v>
@@ -2723,19 +2723,19 @@
         <v>241516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>216688</v>
+        <v>214362</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>273708</v>
+        <v>271240</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1808328493620462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1622434398913687</v>
+        <v>0.1605016123958546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2049364178203381</v>
+        <v>0.2030884864834295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>549</v>
@@ -2744,19 +2744,19 @@
         <v>593008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>554068</v>
+        <v>551029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>639272</v>
+        <v>635149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2567963945667016</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2399337767536357</v>
+        <v>0.2386178352651994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2768307471593681</v>
+        <v>0.2750452416633705</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>148859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127747</v>
+        <v>124876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176364</v>
+        <v>172386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1528828322651774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1312003679487635</v>
+        <v>0.1282520828327873</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1811319685585547</v>
+        <v>0.177046290851452</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -2794,19 +2794,19 @@
         <v>182037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>157693</v>
+        <v>159819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208413</v>
+        <v>207309</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1362987644134138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1180712805095054</v>
+        <v>0.1196631229578687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1560478130443554</v>
+        <v>0.1552207976731914</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>310</v>
@@ -2815,19 +2815,19 @@
         <v>330896</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>296655</v>
+        <v>295857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>365398</v>
+        <v>364150</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1432913042680481</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1284635651189732</v>
+        <v>0.1281181185923935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1582322497926705</v>
+        <v>0.1576915746429541</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>132656</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>110428</v>
+        <v>109927</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157239</v>
+        <v>155691</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1362426648424538</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1134136761752393</v>
+        <v>0.112898228319289</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1614894075509639</v>
+        <v>0.1598999648634984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>194</v>
@@ -2865,19 +2865,19 @@
         <v>203935</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176494</v>
+        <v>177440</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>230246</v>
+        <v>230227</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.15269473062075</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1321486057752945</v>
+        <v>0.1328570501639924</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.17239445587875</v>
+        <v>0.1723803603705892</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>317</v>
@@ -2886,19 +2886,19 @@
         <v>336592</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>303998</v>
+        <v>304945</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>370904</v>
+        <v>371563</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1457578483869036</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1316434606728293</v>
+        <v>0.1320536789690827</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1606164151266531</v>
+        <v>0.1609019366977097</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>36737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26098</v>
+        <v>27089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51372</v>
+        <v>50731</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.037730282252031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0268034836570414</v>
+        <v>0.02782153268717654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05276112490092717</v>
+        <v>0.05210241481378731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -2936,19 +2936,19 @@
         <v>89220</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71666</v>
+        <v>72173</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110078</v>
+        <v>106799</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06680270047034836</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0536594022833089</v>
+        <v>0.05403861785067757</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0824199523475455</v>
+        <v>0.07996504447589532</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -2957,19 +2957,19 @@
         <v>125957</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104473</v>
+        <v>104939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151335</v>
+        <v>147148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05454454735138595</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04524122015952165</v>
+        <v>0.0454426592232963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.065534355361775</v>
+        <v>0.06372120972147066</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>303934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275655</v>
+        <v>273701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>334539</v>
+        <v>336257</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3121501402915855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2831072376294854</v>
+        <v>0.2811004691571763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3435824299000403</v>
+        <v>0.3453475847790759</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>573</v>
@@ -3007,19 +3007,19 @@
         <v>618866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>580155</v>
+        <v>582049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>660076</v>
+        <v>653823</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4633709551334417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4343862445189435</v>
+        <v>0.4358044632515939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4942264916956283</v>
+        <v>0.4895448092965548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>857</v>
@@ -3028,19 +3028,19 @@
         <v>922800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>873491</v>
+        <v>873641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973778</v>
+        <v>974165</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3996099054269607</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3782571133334715</v>
+        <v>0.3783219849317749</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4216856575243494</v>
+        <v>0.4218529513368931</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>422437</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>385901</v>
+        <v>386063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>458092</v>
+        <v>460211</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2156334551357996</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1969839710911346</v>
+        <v>0.1970665666343715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2338338110302855</v>
+        <v>0.2349151984109311</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>220</v>
@@ -3153,19 +3153,19 @@
         <v>237989</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208077</v>
+        <v>207258</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>266154</v>
+        <v>268042</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.135871309342289</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1187938585699028</v>
+        <v>0.1183265477351379</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1519510462223024</v>
+        <v>0.15302873407587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>619</v>
@@ -3174,19 +3174,19 @@
         <v>660426</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>610381</v>
+        <v>614144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>711384</v>
+        <v>712743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1779822602006877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1644954420871981</v>
+        <v>0.1655096577754893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1917154315954959</v>
+        <v>0.1920816435012113</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>413433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>377083</v>
+        <v>377077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452075</v>
+        <v>450601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2110376540931398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1924825702573437</v>
+        <v>0.1924793213547156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2307625935643386</v>
+        <v>0.230009931879508</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>240</v>
@@ -3224,19 +3224,19 @@
         <v>256399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225260</v>
+        <v>224450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286521</v>
+        <v>284323</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1463818458609271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.128604131271797</v>
+        <v>0.1281417697733853</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.163578705417471</v>
+        <v>0.1623240718530953</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>629</v>
@@ -3245,19 +3245,19 @@
         <v>669832</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>624544</v>
+        <v>622790</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>722250</v>
+        <v>717074</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1805173061859962</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1683122195086756</v>
+        <v>0.1678396243307699</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1946436216996217</v>
+        <v>0.1932489240224718</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>418499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>384457</v>
+        <v>382948</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>459792</v>
+        <v>456083</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2136233184932733</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.196246904508006</v>
+        <v>0.1954765092083216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2347017524803816</v>
+        <v>0.2328081474951942</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>355</v>
@@ -3295,19 +3295,19 @@
         <v>376974</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>341096</v>
+        <v>343142</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>411679</v>
+        <v>411490</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2152195880842166</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1947366199357683</v>
+        <v>0.1959043342364463</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2350334903402345</v>
+        <v>0.2349256322621503</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>753</v>
@@ -3316,19 +3316,19 @@
         <v>795472</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>744742</v>
+        <v>745884</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>848662</v>
+        <v>850160</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2143768270271734</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2007051294708755</v>
+        <v>0.201012964633827</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2287112588448494</v>
+        <v>0.2291150116462227</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>108867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90085</v>
+        <v>88368</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133077</v>
+        <v>131685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05557134737836233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04598415260316482</v>
+        <v>0.04510781088790951</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06792946148266246</v>
+        <v>0.06721889915631456</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>172</v>
@@ -3366,19 +3366,19 @@
         <v>183530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158787</v>
+        <v>157055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>212592</v>
+        <v>211871</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.10477969668266</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09065369256642911</v>
+        <v>0.08966470801509682</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1213718206720134</v>
+        <v>0.1209603769921296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>275</v>
@@ -3387,19 +3387,19 @@
         <v>292397</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258849</v>
+        <v>259352</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>323512</v>
+        <v>327979</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07879982416593048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06975882191453943</v>
+        <v>0.0698944321183162</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08718523934214864</v>
+        <v>0.08838901013889724</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>595814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>554036</v>
+        <v>550708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>638051</v>
+        <v>639240</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.304134224899425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2828083268637797</v>
+        <v>0.2811096223143679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3256938696230142</v>
+        <v>0.3263011311782695</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>642</v>
@@ -3437,19 +3437,19 @@
         <v>696685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>655333</v>
+        <v>655296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>739814</v>
+        <v>737096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3977475600299073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3741388188991656</v>
+        <v>0.3741177800121523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4223700508882058</v>
+        <v>0.4208186644152581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1204</v>
@@ -3458,19 +3458,19 @@
         <v>1292499</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1232786</v>
+        <v>1232590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1352527</v>
+        <v>1354130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3483237824202121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3322313838713363</v>
+        <v>0.332178525871182</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3645008984883519</v>
+        <v>0.3649330811523704</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>81706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63107</v>
+        <v>63637</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99538</v>
+        <v>101290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1701500538759732</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1314179795024463</v>
+        <v>0.1325224149379022</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2072849344472274</v>
+        <v>0.2109337929287799</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -3583,19 +3583,19 @@
         <v>70042</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54400</v>
+        <v>54811</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88822</v>
+        <v>89388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1542950424619196</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1198371033844971</v>
+        <v>0.1207426528933195</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1956652693827556</v>
+        <v>0.1969109420690635</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -3604,19 +3604,19 @@
         <v>151748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128799</v>
+        <v>128260</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>176453</v>
+        <v>176564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1624452917358513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1378781828556102</v>
+        <v>0.1373017919823522</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1888920778101275</v>
+        <v>0.189010144268556</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>100153</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82751</v>
+        <v>79323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122864</v>
+        <v>119883</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2085665619064106</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1723268993980052</v>
+        <v>0.1651877718409513</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2558612524764182</v>
+        <v>0.2496526825526617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -3654,19 +3654,19 @@
         <v>81573</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64020</v>
+        <v>65383</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>100178</v>
+        <v>101659</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.179694839166986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1410288015546925</v>
+        <v>0.1440310868798881</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2206794023509474</v>
+        <v>0.2239421241039071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>159</v>
@@ -3675,19 +3675,19 @@
         <v>181726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157457</v>
+        <v>158762</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>209390</v>
+        <v>213497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1945363130170507</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1685569393142549</v>
+        <v>0.1699540421041216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2241504163406848</v>
+        <v>0.2285467693240135</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>133431</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>114150</v>
+        <v>112274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>154208</v>
+        <v>153812</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2778656541961727</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2377137836588045</v>
+        <v>0.2338084764354934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3211348934112802</v>
+        <v>0.320310134854235</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>98</v>
@@ -3725,19 +3725,19 @@
         <v>105364</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>87321</v>
+        <v>88496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>126845</v>
+        <v>126695</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2321038128968738</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1923570644187654</v>
+        <v>0.1949451918924684</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2794242740055783</v>
+        <v>0.2790938480248646</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>224</v>
@@ -3746,19 +3746,19 @@
         <v>238794</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>212515</v>
+        <v>211140</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>270069</v>
+        <v>269513</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2556276315863258</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2274957589410153</v>
+        <v>0.2260235945436028</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2891066103687404</v>
+        <v>0.2885120870695901</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>34237</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24871</v>
+        <v>24313</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48001</v>
+        <v>47803</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07129802533264469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05179238958428474</v>
+        <v>0.05063136762172639</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09996033448578526</v>
+        <v>0.09954748261557743</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -3796,19 +3796,19 @@
         <v>55861</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42283</v>
+        <v>41752</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70650</v>
+        <v>71650</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1230548768328033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09314431077737891</v>
+        <v>0.09197439150423493</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1556336466632472</v>
+        <v>0.1578364136743961</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -3817,19 +3817,19 @@
         <v>90098</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72969</v>
+        <v>71526</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109929</v>
+        <v>109976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09644933046364364</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07811317056177848</v>
+        <v>0.07656818016889215</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1176785561241627</v>
+        <v>0.1177286919602748</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>130671</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111029</v>
+        <v>109507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151493</v>
+        <v>152099</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2721197046887989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2312146177704011</v>
+        <v>0.2280450842072058</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3154799066657983</v>
+        <v>0.3167430076353018</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -3867,19 +3867,19 @@
         <v>141111</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120677</v>
+        <v>121580</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165274</v>
+        <v>161448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3108514286414172</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2658360199311777</v>
+        <v>0.2678268668231502</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3640800270218499</v>
+        <v>0.3556496299466984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>246</v>
@@ -3888,19 +3888,19 @@
         <v>271783</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240318</v>
+        <v>241791</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>300946</v>
+        <v>299952</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2909414331971286</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2572591436634748</v>
+        <v>0.2588352055455173</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3221608647335648</v>
+        <v>0.3210961722168281</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>855634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>807427</v>
+        <v>805427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>908675</v>
+        <v>906981</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2507040508462934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.236579110505421</v>
+        <v>0.2359932138941424</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.266245092977119</v>
+        <v>0.2657488597583939</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>503</v>
@@ -4013,19 +4013,19 @@
         <v>549547</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>505095</v>
+        <v>504882</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>594312</v>
+        <v>602059</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1551909870469173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1426377181633058</v>
+        <v>0.1425775609595643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1678324029240351</v>
+        <v>0.1700201864638441</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1300</v>
@@ -4034,19 +4034,19 @@
         <v>1405181</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1338462</v>
+        <v>1334425</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1474912</v>
+        <v>1473863</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2020672724083758</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1924728615496238</v>
+        <v>0.1918923164988688</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2120946854578648</v>
+        <v>0.2119438333181583</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>662445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>618485</v>
+        <v>615573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>711581</v>
+        <v>709742</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1940989128587556</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1812183156736802</v>
+        <v>0.1803651038650723</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2084958784831607</v>
+        <v>0.2079568997306752</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>481</v>
@@ -4084,19 +4084,19 @@
         <v>520009</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>476213</v>
+        <v>477139</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>565677</v>
+        <v>561574</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1468494303453496</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1344815540254166</v>
+        <v>0.1347430821916701</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.159746086850666</v>
+        <v>0.1585874136956862</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1098</v>
@@ -4105,19 +4105,19 @@
         <v>1182454</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1118175</v>
+        <v>1118828</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1249462</v>
+        <v>1249827</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1700387212902196</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.160795271817475</v>
+        <v>0.160889216593531</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1796746319143556</v>
+        <v>0.1797270676474379</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>684586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>639651</v>
+        <v>641028</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>734326</v>
+        <v>738511</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2005861909181508</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1874202046243052</v>
+        <v>0.1878236770215112</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2151601503357968</v>
+        <v>0.2163864059071119</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>647</v>
@@ -4155,19 +4155,19 @@
         <v>686273</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>636022</v>
+        <v>637991</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>735871</v>
+        <v>739430</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1938019673908362</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1796114048149221</v>
+        <v>0.1801673030327256</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2078085084582587</v>
+        <v>0.2088134349145025</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1294</v>
@@ -4176,19 +4176,19 @@
         <v>1370858</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1306901</v>
+        <v>1303434</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1444872</v>
+        <v>1446018</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1971315558824201</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1879343537472547</v>
+        <v>0.1874358696795157</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2077748756412798</v>
+        <v>0.2079396049482937</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>179841</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153341</v>
+        <v>156684</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>208585</v>
+        <v>208099</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05269419094080455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04492962008282505</v>
+        <v>0.04590902291302951</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06111626770677575</v>
+        <v>0.06097366419611829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>308</v>
@@ -4226,19 +4226,19 @@
         <v>328611</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>294153</v>
+        <v>297186</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>367192</v>
+        <v>365901</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09279894554113254</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08306809357515317</v>
+        <v>0.08392461062887674</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1036942924261898</v>
+        <v>0.1033297910198209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>479</v>
@@ -4247,19 +4247,19 @@
         <v>508452</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>461665</v>
+        <v>464176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>548688</v>
+        <v>556399</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0731161728793208</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06638807160954105</v>
+        <v>0.06674915636736581</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07890222670829371</v>
+        <v>0.08001109975418644</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>1030419</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>975785</v>
+        <v>973313</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1083700</v>
+        <v>1084967</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3019166544359956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2859086886982032</v>
+        <v>0.2851844399406744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3175280920437314</v>
+        <v>0.3178992167618013</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1344</v>
@@ -4297,19 +4297,19 @@
         <v>1456663</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1397709</v>
+        <v>1398829</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1514670</v>
+        <v>1517231</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4113586696757643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3947101790746082</v>
+        <v>0.3950265994953712</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4277397448883528</v>
+        <v>0.4284629629795346</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2307</v>
@@ -4318,19 +4318,19 @@
         <v>2487082</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2399448</v>
+        <v>2411209</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2567151</v>
+        <v>2576593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3576462775396637</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3450443247833995</v>
+        <v>0.3467356518635672</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3691602575934583</v>
+        <v>0.3705180361243587</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>139726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119314</v>
+        <v>119507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160625</v>
+        <v>160991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1862361974224436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1590299928597913</v>
+        <v>0.159286904604825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2140912512206163</v>
+        <v>0.214579798064764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -4682,19 +4682,19 @@
         <v>125937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104325</v>
+        <v>105063</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149919</v>
+        <v>148897</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1269209026414561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1051396533178012</v>
+        <v>0.1058840163391793</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1510903747308636</v>
+        <v>0.150060265438636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>255</v>
@@ -4703,19 +4703,19 @@
         <v>265663</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237593</v>
+        <v>235541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>295998</v>
+        <v>297032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1524599818790411</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1363506717107612</v>
+        <v>0.1351731952151509</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1698686573396012</v>
+        <v>0.170462129088628</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>203101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177808</v>
+        <v>179405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226571</v>
+        <v>225852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2707063481699702</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2369940097105621</v>
+        <v>0.2391222101042115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3019886628905584</v>
+        <v>0.3010304628634411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -4753,19 +4753,19 @@
         <v>196541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171554</v>
+        <v>172356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223455</v>
+        <v>221528</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1980764769044908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1728940671542342</v>
+        <v>0.1737027863556686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2252007864590367</v>
+        <v>0.2232594232334778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>384</v>
@@ -4774,19 +4774,19 @@
         <v>399642</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>362370</v>
+        <v>364478</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>434300</v>
+        <v>437307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2293483443733047</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2079586705108289</v>
+        <v>0.2091681872438341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2492380797483466</v>
+        <v>0.2509634332208281</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>148210</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>127830</v>
+        <v>126637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>171426</v>
+        <v>170845</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1975432178597807</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1703802334037202</v>
+        <v>0.1687904503883269</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2284881782102633</v>
+        <v>0.2277127129458916</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -4824,19 +4824,19 @@
         <v>154473</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>131491</v>
+        <v>130131</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>176865</v>
+        <v>179340</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1556798326277608</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1325186373954549</v>
+        <v>0.131147290554069</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1782473187442118</v>
+        <v>0.1807412844284292</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>292</v>
@@ -4845,19 +4845,19 @@
         <v>302683</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274879</v>
+        <v>272160</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>338383</v>
+        <v>335409</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1737047335667476</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1577489766617902</v>
+        <v>0.1561883280650565</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.194192787095395</v>
+        <v>0.1924859384024681</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>39526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28704</v>
+        <v>27966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52842</v>
+        <v>51668</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0526821769235071</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03825854627827222</v>
+        <v>0.03727518870665823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07043113879446944</v>
+        <v>0.06886674232420756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -4895,19 +4895,19 @@
         <v>62624</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47807</v>
+        <v>48167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79820</v>
+        <v>79870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06311364107531396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04818057767573742</v>
+        <v>0.04854301744504273</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08044372516058231</v>
+        <v>0.08049417646263063</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -4916,19 +4916,19 @@
         <v>102150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84126</v>
+        <v>84864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123059</v>
+        <v>122009</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05862221958747175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04827883469599478</v>
+        <v>0.04870192893710657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07062176092172885</v>
+        <v>0.07001923857964047</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>219701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>194523</v>
+        <v>195323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246026</v>
+        <v>246254</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2928320596242984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2592732636290371</v>
+        <v>0.2603388833024495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3279198814588112</v>
+        <v>0.3282232268478864</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -4966,19 +4966,19 @@
         <v>452672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>421327</v>
+        <v>423231</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485980</v>
+        <v>485358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4562091467509784</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4246189413305406</v>
+        <v>0.4265380964147277</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4897773821770779</v>
+        <v>0.489150554457194</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>620</v>
@@ -4987,19 +4987,19 @@
         <v>672374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>631444</v>
+        <v>633750</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714747</v>
+        <v>717685</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3858647205934349</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.362375582154077</v>
+        <v>0.3636992093225355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4101821703872803</v>
+        <v>0.4118679083310475</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>325906</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>291766</v>
+        <v>293756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>360022</v>
+        <v>360796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1576780319035243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1411606327321712</v>
+        <v>0.1421235565448584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1741840410817038</v>
+        <v>0.1745584054129767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -5112,19 +5112,19 @@
         <v>223644</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196236</v>
+        <v>195512</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>254840</v>
+        <v>251891</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1129164642909646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09907817598575845</v>
+        <v>0.09871248520134526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1286670357710476</v>
+        <v>0.1271778580972792</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>518</v>
@@ -5133,19 +5133,19 @@
         <v>549550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>509268</v>
+        <v>506553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>597189</v>
+        <v>595161</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1357743682886904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.125822225671636</v>
+        <v>0.1251512861513123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1475442368295056</v>
+        <v>0.1470432712150214</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>546724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>504204</v>
+        <v>506981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>584507</v>
+        <v>585599</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2645133530648943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2439417637801745</v>
+        <v>0.2452850834435089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2827931889761711</v>
+        <v>0.2833217582930154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>473</v>
@@ -5183,19 +5183,19 @@
         <v>492292</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>456624</v>
+        <v>456357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>529514</v>
+        <v>530600</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.248554406100623</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2305459164136417</v>
+        <v>0.2304115046149591</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2673479409001789</v>
+        <v>0.2678958647563108</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>989</v>
@@ -5204,19 +5204,19 @@
         <v>1039016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>982863</v>
+        <v>984159</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1099927</v>
+        <v>1095803</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2567039883666328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2428306084659591</v>
+        <v>0.2431507658429799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2717529900408318</v>
+        <v>0.2707342030515551</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>511727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>473799</v>
+        <v>472553</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>555705</v>
+        <v>552792</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2475810973911385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2292310736667467</v>
+        <v>0.228628467157521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2688582795944612</v>
+        <v>0.2674491343173438</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>464</v>
@@ -5254,19 +5254,19 @@
         <v>480402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>436694</v>
+        <v>442630</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>517244</v>
+        <v>519775</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2425512297207582</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2204836034193222</v>
+        <v>0.2234806161278104</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2611527225751056</v>
+        <v>0.2624307622876046</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>945</v>
@@ -5275,19 +5275,19 @@
         <v>992128</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>937670</v>
+        <v>941377</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1048565</v>
+        <v>1046448</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2451197776618396</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2316651294358303</v>
+        <v>0.2325810156667678</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2590633299241403</v>
+        <v>0.2585403095835972</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>174678</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149893</v>
+        <v>149853</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>199785</v>
+        <v>204156</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08451180823804211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07252043222064292</v>
+        <v>0.07250104056798559</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0966591191846268</v>
+        <v>0.09877381431120462</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -5325,19 +5325,19 @@
         <v>183747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161063</v>
+        <v>160624</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211267</v>
+        <v>210244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09277232469466977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08131948144640308</v>
+        <v>0.08109790740467347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1066672915495677</v>
+        <v>0.1061508623974729</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>347</v>
@@ -5346,19 +5346,19 @@
         <v>358425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>321633</v>
+        <v>321856</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>390187</v>
+        <v>393097</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08855401639564922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07946417042517961</v>
+        <v>0.07951934733546615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09640131918125078</v>
+        <v>0.09712032684272613</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>507871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>472176</v>
+        <v>465528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>548615</v>
+        <v>547425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2457157094024007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2284461344956036</v>
+        <v>0.2252294073445832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2654284218831555</v>
+        <v>0.2648525725171716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>570</v>
@@ -5396,19 +5396,19 @@
         <v>600535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>556871</v>
+        <v>558367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>641779</v>
+        <v>643275</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3032055751929845</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2811599672884953</v>
+        <v>0.2819156511933181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3240292979753684</v>
+        <v>0.3247850392163918</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1045</v>
@@ -5417,19 +5417,19 @@
         <v>1108406</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1049626</v>
+        <v>1054209</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1163133</v>
+        <v>1168909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2738478492871879</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2593255770018532</v>
+        <v>0.2604576727032394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2873690808033389</v>
+        <v>0.2887960094907644</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>98596</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80638</v>
+        <v>80119</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119378</v>
+        <v>116425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1809276382092875</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1479737829573453</v>
+        <v>0.1470221010206519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2190635761230357</v>
+        <v>0.2136440134583018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -5542,19 +5542,19 @@
         <v>91048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73777</v>
+        <v>72892</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110326</v>
+        <v>108983</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1658015827849908</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1343507336136327</v>
+        <v>0.1327383007861693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2009060231490588</v>
+        <v>0.1984619573052352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>171</v>
@@ -5563,19 +5563,19 @@
         <v>189644</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>165902</v>
+        <v>163277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>217315</v>
+        <v>217457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1733356275923721</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1516353185841876</v>
+        <v>0.1492359194396785</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1986264867094292</v>
+        <v>0.1987567751885466</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>165128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144260</v>
+        <v>143526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188994</v>
+        <v>188918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3030163527112347</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2647216462573651</v>
+        <v>0.2633759639486506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3468106073973627</v>
+        <v>0.3466710680198509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>133</v>
@@ -5613,19 +5613,19 @@
         <v>136138</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116791</v>
+        <v>115910</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>157231</v>
+        <v>156078</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2479106540659653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2126800232679348</v>
+        <v>0.2110758193599762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2863218422718227</v>
+        <v>0.2842232042006162</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>285</v>
@@ -5634,19 +5634,19 @@
         <v>301266</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>269397</v>
+        <v>270889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>333345</v>
+        <v>332837</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2753579158331431</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2462296628561584</v>
+        <v>0.2475933140294015</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3046784763853819</v>
+        <v>0.3042145089705415</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>127425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108273</v>
+        <v>107407</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>149496</v>
+        <v>148670</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2338303002796564</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1986841917827703</v>
+        <v>0.1970954342480959</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2743304042616208</v>
+        <v>0.2728146329424418</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>131</v>
@@ -5684,19 +5684,19 @@
         <v>134052</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114888</v>
+        <v>114630</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>157121</v>
+        <v>154222</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.244111843105039</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2092147423751669</v>
+        <v>0.2087438347564649</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2861212197848876</v>
+        <v>0.2808421389785633</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>249</v>
@@ -5705,19 +5705,19 @@
         <v>261477</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232354</v>
+        <v>232526</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>290181</v>
+        <v>291190</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2389907720681699</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.212372754191557</v>
+        <v>0.2125298131534383</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2652259607041626</v>
+        <v>0.266148442061188</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>41001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29665</v>
+        <v>29969</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55143</v>
+        <v>55635</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07523863137742481</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05443716615728454</v>
+        <v>0.05499493696454385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1011888772823991</v>
+        <v>0.1020916869466813</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -5755,19 +5755,19 @@
         <v>55457</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41314</v>
+        <v>42104</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70422</v>
+        <v>70767</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1009884790113119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07523406134045406</v>
+        <v>0.07667313719205686</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1282409800314737</v>
+        <v>0.1288683933825452</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -5776,19 +5776,19 @@
         <v>96458</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77996</v>
+        <v>79493</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116890</v>
+        <v>118043</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08816289425606054</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07128848457244261</v>
+        <v>0.07265659318336865</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1068377686665145</v>
+        <v>0.107891574354097</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>112797</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93482</v>
+        <v>93228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132853</v>
+        <v>132779</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2069870774223966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1715429764031223</v>
+        <v>0.1710775203894136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2437895057600337</v>
+        <v>0.243654219643326</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -5826,19 +5826,19 @@
         <v>132446</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112436</v>
+        <v>114542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153018</v>
+        <v>154220</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.241187441032693</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2047491820705974</v>
+        <v>0.2085839675508191</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2786500168504683</v>
+        <v>0.2808382587774312</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>230</v>
@@ -5847,19 +5847,19 @@
         <v>245243</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>217541</v>
+        <v>216118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>273485</v>
+        <v>274196</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2241527902502543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1988329426713884</v>
+        <v>0.1975328191327734</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2499658470321386</v>
+        <v>0.2506156805877547</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>564228</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>521523</v>
+        <v>519151</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>607382</v>
+        <v>606900</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1678192583353618</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1551175561055994</v>
+        <v>0.1544119510072048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1806544838672578</v>
+        <v>0.1805111389121281</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>409</v>
@@ -5972,19 +5972,19 @@
         <v>440630</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>399318</v>
+        <v>400469</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>479539</v>
+        <v>482989</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1251075895008137</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1133780762039902</v>
+        <v>0.1137047647326109</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1361551704013198</v>
+        <v>0.1371345691045176</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>944</v>
@@ -5993,19 +5993,19 @@
         <v>1004858</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>942286</v>
+        <v>950648</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1065344</v>
+        <v>1064062</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1459674163691818</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1368781146665431</v>
+        <v>0.1380927669186034</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.154753758150147</v>
+        <v>0.1545675477670741</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>914953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>866512</v>
+        <v>866330</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>970303</v>
+        <v>963506</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2721360807595847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2577279434371813</v>
+        <v>0.2576738896146011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2885989283718242</v>
+        <v>0.2865772896126118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>784</v>
@@ -6043,19 +6043,19 @@
         <v>824970</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>777339</v>
+        <v>775813</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>877688</v>
+        <v>882472</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.234232993711186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2207091564181135</v>
+        <v>0.2202759456810335</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2492011406458042</v>
+        <v>0.250559465422634</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1658</v>
@@ -6064,19 +6064,19 @@
         <v>1739923</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1670305</v>
+        <v>1664477</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1816704</v>
+        <v>1818505</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2527443714021169</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.242631481267801</v>
+        <v>0.2417849159879882</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2638976379477336</v>
+        <v>0.2641593420153737</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>787362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>744465</v>
+        <v>738711</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>842619</v>
+        <v>838533</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2341862339642294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2214275686080841</v>
+        <v>0.2197161505656447</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2506214934316101</v>
+        <v>0.2494061485894683</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>738</v>
@@ -6114,19 +6114,19 @@
         <v>768926</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>719959</v>
+        <v>720546</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>819149</v>
+        <v>820713</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2183204602028614</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2044173394353979</v>
+        <v>0.2045839186491369</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2325803607250039</v>
+        <v>0.233024254423528</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1486</v>
@@ -6135,19 +6135,19 @@
         <v>1556287</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1486647</v>
+        <v>1491860</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1629764</v>
+        <v>1628962</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2260690989900008</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.215952951315186</v>
+        <v>0.2167102692851706</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2367423815916919</v>
+        <v>0.2366259604617749</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>255205</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>224742</v>
+        <v>224058</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>287140</v>
+        <v>289263</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07590591164349028</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06684531265815008</v>
+        <v>0.06664190212487146</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08540448858608131</v>
+        <v>0.08603598657246124</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>290</v>
@@ -6185,19 +6185,19 @@
         <v>301828</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>272282</v>
+        <v>269106</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>335379</v>
+        <v>337260</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08569768369596889</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0773088767403585</v>
+        <v>0.07640697660979817</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09522381229490338</v>
+        <v>0.09575792186395489</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>534</v>
@@ -6206,19 +6206,19 @@
         <v>557032</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>509144</v>
+        <v>513006</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>603845</v>
+        <v>603028</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0809155088167702</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07395909959517721</v>
+        <v>0.07452017281468259</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08771566935849807</v>
+        <v>0.08759686052030061</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>840370</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>793954</v>
+        <v>789334</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>893135</v>
+        <v>888118</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2499525152973338</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2361471795564168</v>
+        <v>0.2347729081305497</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2656465151288713</v>
+        <v>0.2641543196264935</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1096</v>
@@ -6256,19 +6256,19 @@
         <v>1185653</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1128438</v>
+        <v>1117708</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1243844</v>
+        <v>1242515</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3366412728891701</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.320396387586059</v>
+        <v>0.3173497149770735</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3531634193395573</v>
+        <v>0.3527860973438176</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1895</v>
@@ -6277,19 +6277,19 @@
         <v>2026022</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1942350</v>
+        <v>1949625</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2102126</v>
+        <v>2106658</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2943036044219303</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2821492654134062</v>
+        <v>0.2832060751165743</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.305358635513695</v>
+        <v>0.3060169489511098</v>
       </c>
     </row>
     <row r="27">
